--- a/BaseTest/src/test/java/testData/TestScripts.xlsx
+++ b/BaseTest/src/test/java/testData/TestScripts.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D3B8AFC3-257B-4619-A50F-AE2FE4798990}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>TC001</t>
   </si>
@@ -47,12 +45,6 @@
     <t>PARAM5</t>
   </si>
   <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
     <t>PARAM6</t>
   </si>
   <si>
@@ -62,12 +54,6 @@
     <t>PARAM8</t>
   </si>
   <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
     <t>PARAM9</t>
   </si>
   <si>
@@ -180,13 +166,28 @@
   </si>
   <si>
     <t>214</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>HYDERABAD</t>
+  </si>
+  <si>
+    <t>PUNE</t>
+  </si>
+  <si>
+    <t>GUNTUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,27 +335,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,24 +369,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,31 +544,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -621,188 +586,194 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="O2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="AG2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,24 +785,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
